--- a/TestCase_Automation.xlsx
+++ b/TestCase_Automation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="87">
   <si>
     <t>SUMMARY TESTING STATUS</t>
   </si>

--- a/TestCase_Automation.xlsx
+++ b/TestCase_Automation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="87">
   <si>
     <t>SUMMARY TESTING STATUS</t>
   </si>

--- a/TestCase_Automation.xlsx
+++ b/TestCase_Automation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="87">
   <si>
     <t>SUMMARY TESTING STATUS</t>
   </si>

--- a/TestCase_Automation.xlsx
+++ b/TestCase_Automation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="87">
   <si>
     <t>SUMMARY TESTING STATUS</t>
   </si>
